--- a/labyrinthe/Labyrinthe.xlsx
+++ b/labyrinthe/Labyrinthe.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael.Menoret\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B13838-FE64-4F5B-975A-C6A3ECC97EE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA11BA-765A-4857-BC29-87AE290FCED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D6BDC88C-8C77-45C9-93C2-87BFA02F5B6D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{D6BDC88C-8C77-45C9-93C2-87BFA02F5B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$B$2:$AC$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$AD$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -213,21 +213,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -438,14 +423,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,29 +499,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1947,23 +1926,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5058291A-0D14-4979-8090-E8E580C99C4A}">
-  <dimension ref="A1:AC43"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.5703125" defaultRowHeight="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="5.5703125" style="1"/>
     <col min="10" max="11" width="1.42578125" style="1" customWidth="1"/>
     <col min="12" max="19" width="5.5703125" style="1"/>
     <col min="20" max="21" width="1.42578125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="5.5703125" style="1"/>
+    <col min="22" max="29" width="5.5703125" style="1"/>
+    <col min="30" max="30" width="1.42578125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="5.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1993,256 +1974,265 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="22"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="13"/>
-    </row>
-    <row r="3" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="8"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="20"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="21"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="12"/>
-    </row>
-    <row r="4" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="5"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="5"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="21"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="19"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-    </row>
-    <row r="5" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4" s="8"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="5"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="12"/>
-    </row>
-    <row r="6" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5" s="11"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="21"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="19"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="10"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="12"/>
-    </row>
-    <row r="7" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="11"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="5"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="20"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="18"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="12"/>
-    </row>
-    <row r="8" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="14"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="22"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="20"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="5"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="12"/>
-    </row>
-    <row r="9" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8" s="8"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="14"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2272,8 +2262,9 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2295,256 +2286,265 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-    </row>
-    <row r="12" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="7"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="6"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="22"/>
-    </row>
-    <row r="13" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="15"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="22"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="20"/>
-    </row>
-    <row r="14" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="8"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="5"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="21"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="18"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="5"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="21"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="10"/>
-    </row>
-    <row r="16" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="18"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="5"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="22"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="20"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="20"/>
-    </row>
-    <row r="17" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="10"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="5"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="4"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="16"/>
-    </row>
-    <row r="18" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="20"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="2"/>
+    </row>
+    <row r="18" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="20"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="22"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="20"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="20"/>
-    </row>
-    <row r="19" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="11"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="4"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="5"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="14"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2574,8 +2574,9 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-    </row>
-    <row r="21" spans="1:29" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD20" s="2"/>
+    </row>
+    <row r="21" spans="1:30" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2603,262 +2604,299 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="10"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="30"/>
-    </row>
-    <row r="23" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="8"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="9"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="20"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="18"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="31"/>
-    </row>
-    <row r="24" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="31"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="31"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="20"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="18"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="44"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="29"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="2"/>
+    </row>
+    <row r="25" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="20"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="5"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="4"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="30"/>
-    </row>
-    <row r="26" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="33"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="31"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="22"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="20"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-    </row>
-    <row r="27" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="27"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="31"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="18"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="30"/>
-      <c r="AC27" s="37"/>
-    </row>
-    <row r="28" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="31"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="5"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="8"/>
-    </row>
-    <row r="29" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="29"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="5"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="5"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="4"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="8"/>
-    </row>
-    <row r="30" spans="1:29" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="33"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
     </row>
-    <row r="32" spans="1:29" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2880,44 +2918,45 @@
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
     </row>
-    <row r="35" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
     </row>
-    <row r="40" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
     </row>
-    <row r="41" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2939,14 +2978,20 @@
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
-    </row>
-    <row r="43" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="AD42" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="195" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="10" max="29" man="1"/>
+    <brk id="20" max="29" man="1"/>
+  </rowBreaks>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="10" max="29" man="1"/>
+    <brk id="20" max="29" man="1"/>
+  </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>